--- a/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00176</v>
+        <v>0.00206</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00099</v>
+        <v>0.00124</v>
       </c>
       <c r="D3">
-        <v>0.00096</v>
+        <v>0.00137</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2E-05</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="D4">
-        <v>0.00104</v>
+        <v>0.00111</v>
       </c>
       <c r="E4">
-        <v>0.00107</v>
+        <v>0.00142</v>
       </c>
       <c r="F4">
-        <v>0.00122</v>
+        <v>0.00152</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00046</v>
+        <v>0.00077</v>
       </c>
       <c r="D5">
-        <v>0.00028</v>
+        <v>0.0008</v>
       </c>
       <c r="E5">
-        <v>0.00073</v>
+        <v>0.00109</v>
       </c>
       <c r="F5">
-        <v>0.00112</v>
+        <v>0.00107</v>
       </c>
       <c r="G5">
-        <v>0.00096</v>
+        <v>0.00111</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00063</v>
+        <v>0.0008</v>
       </c>
       <c r="D6">
-        <v>0.00021</v>
+        <v>0.00062</v>
       </c>
       <c r="E6">
-        <v>0.00072</v>
+        <v>0.00101</v>
       </c>
       <c r="F6">
-        <v>0.00072</v>
+        <v>0.00116</v>
       </c>
       <c r="G6">
-        <v>0.00083</v>
+        <v>0.00126</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00067</v>
+        <v>0.00057</v>
       </c>
       <c r="D7">
-        <v>0.00022</v>
+        <v>0.00087</v>
       </c>
       <c r="E7">
-        <v>0.00079</v>
+        <v>0.00085</v>
       </c>
       <c r="F7">
-        <v>0.00075</v>
+        <v>0.00099</v>
       </c>
       <c r="G7">
-        <v>0.0006400000000000001</v>
+        <v>0.00124</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.03082</v>
+        <v>0.03145</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.02043</v>
+        <v>0.02135</v>
       </c>
       <c r="D9">
-        <v>0.02143</v>
+        <v>0.02168</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01103</v>
+        <v>0.01421</v>
       </c>
       <c r="D10">
-        <v>0.01493</v>
+        <v>0.01439</v>
       </c>
       <c r="E10">
-        <v>0.01368</v>
+        <v>0.0147</v>
       </c>
       <c r="F10">
-        <v>0.01318</v>
+        <v>0.01444</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01302</v>
+        <v>0.01252</v>
       </c>
       <c r="D11">
-        <v>0.009549999999999999</v>
+        <v>0.01208</v>
       </c>
       <c r="E11">
-        <v>0.01145</v>
+        <v>0.01241</v>
       </c>
       <c r="F11">
-        <v>0.01094</v>
+        <v>0.01189</v>
       </c>
       <c r="G11">
-        <v>0.01003</v>
+        <v>0.01173</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01335</v>
+        <v>0.01092</v>
       </c>
       <c r="D12">
-        <v>0.00868</v>
+        <v>0.01095</v>
       </c>
       <c r="E12">
-        <v>0.01449</v>
+        <v>0.01109</v>
       </c>
       <c r="F12">
-        <v>0.0102</v>
+        <v>0.01091</v>
       </c>
       <c r="G12">
-        <v>0.00963</v>
+        <v>0.01064</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01316</v>
+        <v>0.01011</v>
       </c>
       <c r="D13">
-        <v>0.00844</v>
+        <v>0.01503</v>
       </c>
       <c r="E13">
-        <v>0.009849999999999999</v>
+        <v>0.00993</v>
       </c>
       <c r="F13">
-        <v>0.01011</v>
+        <v>0.00983</v>
       </c>
       <c r="G13">
-        <v>0.009299999999999999</v>
+        <v>0.009939999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.41909</v>
+        <v>0.49026</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.23447</v>
+        <v>0.29528</v>
       </c>
       <c r="D15">
-        <v>0.22882</v>
+        <v>0.32721</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.0037</v>
+        <v>0.23175</v>
       </c>
       <c r="D16">
-        <v>0.24866</v>
+        <v>0.26366</v>
       </c>
       <c r="E16">
-        <v>0.25447</v>
+        <v>0.33718</v>
       </c>
       <c r="F16">
-        <v>0.28981</v>
+        <v>0.36145</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.11009</v>
+        <v>0.18346</v>
       </c>
       <c r="D17">
-        <v>0.06610000000000001</v>
+        <v>0.18965</v>
       </c>
       <c r="E17">
-        <v>0.17441</v>
+        <v>0.26025</v>
       </c>
       <c r="F17">
-        <v>0.26561</v>
+        <v>0.25517</v>
       </c>
       <c r="G17">
-        <v>0.22804</v>
+        <v>0.26386</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.14878</v>
+        <v>0.1907</v>
       </c>
       <c r="D18">
-        <v>0.05043</v>
+        <v>0.14777</v>
       </c>
       <c r="E18">
-        <v>0.17128</v>
+        <v>0.23939</v>
       </c>
       <c r="F18">
-        <v>0.17028</v>
+        <v>0.2766</v>
       </c>
       <c r="G18">
-        <v>0.19664</v>
+        <v>0.29983</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.15988</v>
+        <v>0.1345</v>
       </c>
       <c r="D19">
-        <v>0.05228</v>
+        <v>0.20663</v>
       </c>
       <c r="E19">
-        <v>0.18769</v>
+        <v>0.20235</v>
       </c>
       <c r="F19">
-        <v>0.1794</v>
+        <v>0.23469</v>
       </c>
       <c r="G19">
-        <v>0.15279</v>
+        <v>0.29589</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.88129</v>
+        <v>1.01032</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.74387</v>
+        <v>0.89668</v>
       </c>
       <c r="D21">
-        <v>0.69225</v>
+        <v>0.97833</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.02173</v>
+        <v>1.05738</v>
       </c>
       <c r="D22">
-        <v>1.07922</v>
+        <v>1.18756</v>
       </c>
       <c r="E22">
-        <v>1.2056</v>
+        <v>1.48733</v>
       </c>
       <c r="F22">
-        <v>1.42513</v>
+        <v>1.62269</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.54791</v>
+        <v>0.9499</v>
       </c>
       <c r="D23">
-        <v>0.4486</v>
+        <v>1.01772</v>
       </c>
       <c r="E23">
-        <v>0.98747</v>
+        <v>1.35899</v>
       </c>
       <c r="F23">
-        <v>1.57355</v>
+        <v>1.39123</v>
       </c>
       <c r="G23">
-        <v>1.4739</v>
+        <v>1.45773</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.72255</v>
+        <v>1.13153</v>
       </c>
       <c r="D24">
-        <v>0.37677</v>
+        <v>0.87464</v>
       </c>
       <c r="E24">
-        <v>0.76597</v>
+        <v>1.39962</v>
       </c>
       <c r="F24">
-        <v>1.08217</v>
+        <v>1.64291</v>
       </c>
       <c r="G24">
-        <v>1.32309</v>
+        <v>1.82616</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.78774</v>
+        <v>0.86222</v>
       </c>
       <c r="D25">
-        <v>0.40156</v>
+        <v>0.89133</v>
       </c>
       <c r="E25">
-        <v>1.23535</v>
+        <v>1.32146</v>
       </c>
       <c r="F25">
-        <v>1.14985</v>
+        <v>1.54759</v>
       </c>
       <c r="G25">
-        <v>1.06521</v>
+        <v>1.92886</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.42687</v>
+        <v>-0.5195</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.49454</v>
+        <v>-0.53446</v>
       </c>
       <c r="D27">
-        <v>-0.28938</v>
+        <v>-0.26074</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.57995</v>
+        <v>-0.27464</v>
       </c>
       <c r="D28">
-        <v>-0.26756</v>
+        <v>-0.19075</v>
       </c>
       <c r="E28">
-        <v>-0.16947</v>
+        <v>-0.22279</v>
       </c>
       <c r="F28">
-        <v>-0.1735</v>
+        <v>-0.19759</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.3589</v>
+        <v>-0.2129</v>
       </c>
       <c r="D29">
-        <v>-0.29535</v>
+        <v>-0.17552</v>
       </c>
       <c r="E29">
-        <v>-0.24854</v>
+        <v>-0.15825</v>
       </c>
       <c r="F29">
-        <v>-0.15388</v>
+        <v>-0.1634</v>
       </c>
       <c r="G29">
-        <v>-0.14301</v>
+        <v>-0.15821</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.35121</v>
+        <v>-0.1785</v>
       </c>
       <c r="D30">
-        <v>-0.26383</v>
+        <v>-0.19594</v>
       </c>
       <c r="E30">
-        <v>-0.26944</v>
+        <v>-0.16068</v>
       </c>
       <c r="F30">
-        <v>-0.25419</v>
+        <v>-0.16067</v>
       </c>
       <c r="G30">
-        <v>-0.14714</v>
+        <v>-0.16071</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.3094</v>
+        <v>-0.16257</v>
       </c>
       <c r="D31">
-        <v>-0.33019</v>
+        <v>-0.18955</v>
       </c>
       <c r="E31">
-        <v>-0.13803</v>
+        <v>-0.16254</v>
       </c>
       <c r="F31">
-        <v>-0.15206</v>
+        <v>-0.15029</v>
       </c>
       <c r="G31">
-        <v>-0.22073</v>
+        <v>-0.15854</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>9.000000000000001E-05</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00018</v>
+        <v>0.00027</v>
       </c>
       <c r="D3">
-        <v>-0.00069</v>
+        <v>-0.00034</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>-4E-05</v>
+        <v>0.00047</v>
       </c>
       <c r="D4">
-        <v>0.00078</v>
+        <v>0.00021</v>
       </c>
       <c r="E4">
-        <v>6E-05</v>
+        <v>0.00023</v>
       </c>
       <c r="F4">
-        <v>0.00012</v>
+        <v>0.00022</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00043</v>
+        <v>0.00042</v>
       </c>
       <c r="D5">
-        <v>0.00021</v>
+        <v>0.00014</v>
       </c>
       <c r="E5">
-        <v>0.00028</v>
+        <v>0.00023</v>
       </c>
       <c r="F5">
-        <v>0.00041</v>
+        <v>0.00011</v>
       </c>
       <c r="G5">
-        <v>0.00032</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0005999999999999999</v>
+        <v>0.00054</v>
       </c>
       <c r="D6">
-        <v>0.00016</v>
+        <v>9.000000000000001E-05</v>
       </c>
       <c r="E6">
-        <v>0.00059</v>
+        <v>0.00029</v>
       </c>
       <c r="F6">
-        <v>0.00037</v>
+        <v>0.00028</v>
       </c>
       <c r="G6">
-        <v>0.0003</v>
+        <v>0.00027</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00065</v>
+        <v>0.00036</v>
       </c>
       <c r="D7">
-        <v>0.00018</v>
+        <v>0.00043</v>
       </c>
       <c r="E7">
-        <v>0.00066</v>
+        <v>0.00025</v>
       </c>
       <c r="F7">
-        <v>0.00055</v>
+        <v>0.00021</v>
       </c>
       <c r="G7">
-        <v>0.00033</v>
+        <v>0.00031</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.0309</v>
+        <v>0.03151</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.02046</v>
+        <v>0.02135</v>
       </c>
       <c r="D9">
-        <v>0.02146</v>
+        <v>0.02171</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01103</v>
+        <v>0.01421</v>
       </c>
       <c r="D10">
-        <v>0.01494</v>
+        <v>0.01439</v>
       </c>
       <c r="E10">
-        <v>0.01369</v>
+        <v>0.0147</v>
       </c>
       <c r="F10">
-        <v>0.01317</v>
+        <v>0.01445</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01303</v>
+        <v>0.01252</v>
       </c>
       <c r="D11">
-        <v>0.009549999999999999</v>
+        <v>0.01208</v>
       </c>
       <c r="E11">
-        <v>0.01144</v>
+        <v>0.01241</v>
       </c>
       <c r="F11">
-        <v>0.01094</v>
+        <v>0.0119</v>
       </c>
       <c r="G11">
-        <v>0.01002</v>
+        <v>0.01174</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01335</v>
+        <v>0.01093</v>
       </c>
       <c r="D12">
-        <v>0.008670000000000001</v>
+        <v>0.01095</v>
       </c>
       <c r="E12">
-        <v>0.01449</v>
+        <v>0.01109</v>
       </c>
       <c r="F12">
-        <v>0.0102</v>
+        <v>0.01092</v>
       </c>
       <c r="G12">
-        <v>0.00963</v>
+        <v>0.01064</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01316</v>
+        <v>0.01011</v>
       </c>
       <c r="D13">
-        <v>0.00843</v>
+        <v>0.01501</v>
       </c>
       <c r="E13">
-        <v>0.00984</v>
+        <v>0.00993</v>
       </c>
       <c r="F13">
-        <v>0.01011</v>
+        <v>0.00983</v>
       </c>
       <c r="G13">
-        <v>0.00929</v>
+        <v>0.009950000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.02146</v>
+        <v>0.07062</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.04285</v>
+        <v>0.06422</v>
       </c>
       <c r="D15">
-        <v>-0.16467</v>
+        <v>-0.08124000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>-0.00941</v>
+        <v>0.11297</v>
       </c>
       <c r="D16">
-        <v>0.18589</v>
+        <v>0.04952</v>
       </c>
       <c r="E16">
-        <v>0.01525</v>
+        <v>0.0554</v>
       </c>
       <c r="F16">
-        <v>0.02841</v>
+        <v>0.05284</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.10177</v>
+        <v>0.10058</v>
       </c>
       <c r="D17">
-        <v>0.04982</v>
+        <v>0.03226</v>
       </c>
       <c r="E17">
-        <v>0.06618</v>
+        <v>0.05457</v>
       </c>
       <c r="F17">
-        <v>0.09862</v>
+        <v>0.02718</v>
       </c>
       <c r="G17">
-        <v>0.07568999999999999</v>
+        <v>0.02361</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1418</v>
+        <v>0.1275</v>
       </c>
       <c r="D18">
-        <v>0.03755</v>
+        <v>0.02199</v>
       </c>
       <c r="E18">
-        <v>0.13927</v>
+        <v>0.06788</v>
       </c>
       <c r="F18">
-        <v>0.08877</v>
+        <v>0.06665</v>
       </c>
       <c r="G18">
-        <v>0.07102</v>
+        <v>0.06401</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.15431</v>
+        <v>0.08506</v>
       </c>
       <c r="D19">
-        <v>0.04204</v>
+        <v>0.10288</v>
       </c>
       <c r="E19">
-        <v>0.15748</v>
+        <v>0.05987</v>
       </c>
       <c r="F19">
-        <v>0.13017</v>
+        <v>0.05044</v>
       </c>
       <c r="G19">
-        <v>0.07894</v>
+        <v>0.07278999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.04502</v>
+        <v>0.14528</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.13571</v>
+        <v>0.19501</v>
       </c>
       <c r="D21">
-        <v>-0.49734</v>
+        <v>-0.24257</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>-0.05529</v>
+        <v>0.5153799999999999</v>
       </c>
       <c r="D22">
-        <v>0.80659</v>
+        <v>0.22302</v>
       </c>
       <c r="E22">
-        <v>0.07221</v>
+        <v>0.24428</v>
       </c>
       <c r="F22">
-        <v>0.13981</v>
+        <v>0.23706</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.5063299999999999</v>
+        <v>0.52059</v>
       </c>
       <c r="D23">
-        <v>0.33813</v>
+        <v>0.1731</v>
       </c>
       <c r="E23">
-        <v>0.37493</v>
+        <v>0.28499</v>
       </c>
       <c r="F23">
-        <v>0.58457</v>
+        <v>0.14812</v>
       </c>
       <c r="G23">
-        <v>0.4897</v>
+        <v>0.13039</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.68864</v>
+        <v>0.75629</v>
       </c>
       <c r="D24">
-        <v>0.28062</v>
+        <v>0.13009</v>
       </c>
       <c r="E24">
-        <v>0.62297</v>
+        <v>0.39675</v>
       </c>
       <c r="F24">
-        <v>0.5642200000000001</v>
+        <v>0.39578</v>
       </c>
       <c r="G24">
-        <v>0.47829</v>
+        <v>0.3899</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.76031</v>
+        <v>0.5454599999999999</v>
       </c>
       <c r="D25">
-        <v>0.32308</v>
+        <v>0.44425</v>
       </c>
       <c r="E25">
-        <v>1.037</v>
+        <v>0.39091</v>
       </c>
       <c r="F25">
-        <v>0.83466</v>
+        <v>0.33256</v>
       </c>
       <c r="G25">
-        <v>0.55079</v>
+        <v>0.47439</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-1.01296</v>
+        <v>-0.805</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.76158</v>
+        <v>-0.71536</v>
       </c>
       <c r="D27">
-        <v>-0.99726</v>
+        <v>-0.6898</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.57995</v>
+        <v>-0.34425</v>
       </c>
       <c r="D28">
-        <v>-0.29311</v>
+        <v>-0.36833</v>
       </c>
       <c r="E28">
-        <v>-0.28304</v>
+        <v>-0.32092</v>
       </c>
       <c r="F28">
-        <v>-0.31246</v>
+        <v>-0.28609</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.3589</v>
+        <v>-0.22336</v>
       </c>
       <c r="D29">
-        <v>-0.29535</v>
+        <v>-0.31338</v>
       </c>
       <c r="E29">
-        <v>-0.34904</v>
+        <v>-0.30242</v>
       </c>
       <c r="F29">
-        <v>-0.18933</v>
+        <v>-0.25892</v>
       </c>
       <c r="G29">
-        <v>-0.20461</v>
+        <v>-0.2851</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.35121</v>
+        <v>-0.19108</v>
       </c>
       <c r="D30">
-        <v>-0.2676</v>
+        <v>-0.30983</v>
       </c>
       <c r="E30">
-        <v>-0.26944</v>
+        <v>-0.21196</v>
       </c>
       <c r="F30">
-        <v>-0.29304</v>
+        <v>-0.2368</v>
       </c>
       <c r="G30">
-        <v>-0.22651</v>
+        <v>-0.23626</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.3094</v>
+        <v>-0.184</v>
       </c>
       <c r="D31">
-        <v>-0.33019</v>
+        <v>-0.28263</v>
       </c>
       <c r="E31">
-        <v>-0.13803</v>
+        <v>-0.24176</v>
       </c>
       <c r="F31">
-        <v>-0.15625</v>
+        <v>-0.22288</v>
       </c>
       <c r="G31">
-        <v>-0.25064</v>
+        <v>-0.24842</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00206</v>
+        <v>0.0012</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00124</v>
+        <v>0.00228</v>
       </c>
       <c r="D3">
-        <v>0.00137</v>
+        <v>0.00231</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.0009700000000000001</v>
+        <v>0.00115</v>
       </c>
       <c r="D4">
-        <v>0.00111</v>
+        <v>0.00135</v>
       </c>
       <c r="E4">
-        <v>0.00142</v>
+        <v>0.00167</v>
       </c>
       <c r="F4">
-        <v>0.00152</v>
+        <v>0.00174</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00077</v>
+        <v>0.00079</v>
       </c>
       <c r="D5">
-        <v>0.0008</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="E5">
-        <v>0.00109</v>
+        <v>0.00153</v>
       </c>
       <c r="F5">
-        <v>0.00107</v>
+        <v>0.00164</v>
       </c>
       <c r="G5">
-        <v>0.00111</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.0008</v>
+        <v>0.00056</v>
       </c>
       <c r="D6">
-        <v>0.00062</v>
+        <v>0.00079</v>
       </c>
       <c r="E6">
-        <v>0.00101</v>
+        <v>0.00125</v>
       </c>
       <c r="F6">
-        <v>0.00116</v>
+        <v>0.0017</v>
       </c>
       <c r="G6">
-        <v>0.00126</v>
+        <v>0.00174</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00057</v>
+        <v>0.00056</v>
       </c>
       <c r="D7">
-        <v>0.00087</v>
+        <v>0.00074</v>
       </c>
       <c r="E7">
-        <v>0.00085</v>
+        <v>0.00138</v>
       </c>
       <c r="F7">
-        <v>0.00099</v>
+        <v>0.00152</v>
       </c>
       <c r="G7">
-        <v>0.00124</v>
+        <v>0.00162</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.03145</v>
+        <v>0.01794</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.02135</v>
+        <v>0.01906</v>
       </c>
       <c r="D9">
-        <v>0.02168</v>
+        <v>0.01775</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01421</v>
+        <v>0.01316</v>
       </c>
       <c r="D10">
-        <v>0.01439</v>
+        <v>0.01382</v>
       </c>
       <c r="E10">
-        <v>0.0147</v>
+        <v>0.01344</v>
       </c>
       <c r="F10">
-        <v>0.01444</v>
+        <v>0.01329</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01252</v>
+        <v>0.01118</v>
       </c>
       <c r="D11">
-        <v>0.01208</v>
+        <v>0.0113</v>
       </c>
       <c r="E11">
-        <v>0.01241</v>
+        <v>0.01163</v>
       </c>
       <c r="F11">
-        <v>0.01189</v>
+        <v>0.01164</v>
       </c>
       <c r="G11">
-        <v>0.01173</v>
+        <v>0.01151</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01092</v>
+        <v>0.00979</v>
       </c>
       <c r="D12">
-        <v>0.01095</v>
+        <v>0.01035</v>
       </c>
       <c r="E12">
-        <v>0.01109</v>
+        <v>0.01029</v>
       </c>
       <c r="F12">
-        <v>0.01091</v>
+        <v>0.01054</v>
       </c>
       <c r="G12">
-        <v>0.01064</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01011</v>
+        <v>0.009480000000000001</v>
       </c>
       <c r="D13">
-        <v>0.01503</v>
+        <v>0.00957</v>
       </c>
       <c r="E13">
-        <v>0.00993</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="F13">
-        <v>0.00983</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="G13">
-        <v>0.009939999999999999</v>
+        <v>0.009549999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.49026</v>
+        <v>0.28451</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.29528</v>
+        <v>0.54167</v>
       </c>
       <c r="D15">
-        <v>0.32721</v>
+        <v>0.5502899999999999</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.23175</v>
+        <v>0.27434</v>
       </c>
       <c r="D16">
-        <v>0.26366</v>
+        <v>0.32113</v>
       </c>
       <c r="E16">
-        <v>0.33718</v>
+        <v>0.3982</v>
       </c>
       <c r="F16">
-        <v>0.36145</v>
+        <v>0.41333</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.18346</v>
+        <v>0.18696</v>
       </c>
       <c r="D17">
-        <v>0.18965</v>
+        <v>0.23112</v>
       </c>
       <c r="E17">
-        <v>0.26025</v>
+        <v>0.36317</v>
       </c>
       <c r="F17">
-        <v>0.25517</v>
+        <v>0.39128</v>
       </c>
       <c r="G17">
-        <v>0.26386</v>
+        <v>0.38152</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1907</v>
+        <v>0.13296</v>
       </c>
       <c r="D18">
-        <v>0.14777</v>
+        <v>0.18822</v>
       </c>
       <c r="E18">
-        <v>0.23939</v>
+        <v>0.29635</v>
       </c>
       <c r="F18">
-        <v>0.2766</v>
+        <v>0.4053</v>
       </c>
       <c r="G18">
-        <v>0.29983</v>
+        <v>0.41498</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.1345</v>
+        <v>0.13249</v>
       </c>
       <c r="D19">
-        <v>0.20663</v>
+        <v>0.17518</v>
       </c>
       <c r="E19">
-        <v>0.20235</v>
+        <v>0.32846</v>
       </c>
       <c r="F19">
-        <v>0.23469</v>
+        <v>0.36066</v>
       </c>
       <c r="G19">
-        <v>0.29589</v>
+        <v>0.38533</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.01032</v>
+        <v>1.02791</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.89668</v>
+        <v>1.84239</v>
       </c>
       <c r="D21">
-        <v>0.97833</v>
+        <v>2.01014</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1.05738</v>
+        <v>1.35169</v>
       </c>
       <c r="D22">
-        <v>1.18756</v>
+        <v>1.50659</v>
       </c>
       <c r="E22">
-        <v>1.48733</v>
+        <v>1.92108</v>
       </c>
       <c r="F22">
-        <v>1.62269</v>
+        <v>2.01618</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.9499</v>
+        <v>1.08418</v>
       </c>
       <c r="D23">
-        <v>1.01772</v>
+        <v>1.32552</v>
       </c>
       <c r="E23">
-        <v>1.35899</v>
+        <v>2.0249</v>
       </c>
       <c r="F23">
-        <v>1.39123</v>
+        <v>2.17832</v>
       </c>
       <c r="G23">
-        <v>1.45773</v>
+        <v>2.14786</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>1.13153</v>
+        <v>0.8801099999999999</v>
       </c>
       <c r="D24">
-        <v>0.87464</v>
+        <v>1.17933</v>
       </c>
       <c r="E24">
-        <v>1.39962</v>
+        <v>1.86632</v>
       </c>
       <c r="F24">
-        <v>1.64291</v>
+        <v>2.49304</v>
       </c>
       <c r="G24">
-        <v>1.82616</v>
+        <v>2.5871</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.86222</v>
+        <v>0.90626</v>
       </c>
       <c r="D25">
-        <v>0.89133</v>
+        <v>1.186</v>
       </c>
       <c r="E25">
-        <v>1.32146</v>
+        <v>2.18774</v>
       </c>
       <c r="F25">
-        <v>1.54759</v>
+        <v>2.44809</v>
       </c>
       <c r="G25">
-        <v>1.92886</v>
+        <v>2.61492</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.5195</v>
+        <v>-0.37933</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.53446</v>
+        <v>-0.27995</v>
       </c>
       <c r="D27">
-        <v>-0.26074</v>
+        <v>-0.25559</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.27464</v>
+        <v>-0.23494</v>
       </c>
       <c r="D28">
-        <v>-0.19075</v>
+        <v>-0.23298</v>
       </c>
       <c r="E28">
-        <v>-0.22279</v>
+        <v>-0.16415</v>
       </c>
       <c r="F28">
-        <v>-0.19759</v>
+        <v>-0.13614</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.2129</v>
+        <v>-0.21008</v>
       </c>
       <c r="D29">
-        <v>-0.17552</v>
+        <v>-0.17116</v>
       </c>
       <c r="E29">
-        <v>-0.15825</v>
+        <v>-0.11868</v>
       </c>
       <c r="F29">
-        <v>-0.1634</v>
+        <v>-0.11145</v>
       </c>
       <c r="G29">
-        <v>-0.15821</v>
+        <v>-0.11952</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.1785</v>
+        <v>-0.20593</v>
       </c>
       <c r="D30">
-        <v>-0.19594</v>
+        <v>-0.17864</v>
       </c>
       <c r="E30">
-        <v>-0.16068</v>
+        <v>-0.10728</v>
       </c>
       <c r="F30">
-        <v>-0.16067</v>
+        <v>-0.11495</v>
       </c>
       <c r="G30">
-        <v>-0.16071</v>
+        <v>-0.09958</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.16257</v>
+        <v>-0.24809</v>
       </c>
       <c r="D31">
-        <v>-0.18955</v>
+        <v>-0.18943</v>
       </c>
       <c r="E31">
-        <v>-0.16254</v>
+        <v>-0.10674</v>
       </c>
       <c r="F31">
-        <v>-0.15029</v>
+        <v>-0.09878000000000001</v>
       </c>
       <c r="G31">
-        <v>-0.15854</v>
+        <v>-0.10198</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0003</v>
+        <v>0.00061</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00027</v>
+        <v>0.00128</v>
       </c>
       <c r="D3">
-        <v>-0.00034</v>
+        <v>0.00114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00047</v>
+        <v>0.00066</v>
       </c>
       <c r="D4">
-        <v>0.00021</v>
+        <v>0.00051</v>
       </c>
       <c r="E4">
-        <v>0.00023</v>
+        <v>0.00065</v>
       </c>
       <c r="F4">
-        <v>0.00022</v>
+        <v>0.00065</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00042</v>
+        <v>0.00043</v>
       </c>
       <c r="D5">
-        <v>0.00014</v>
+        <v>0.00035</v>
       </c>
       <c r="E5">
-        <v>0.00023</v>
+        <v>0.00066</v>
       </c>
       <c r="F5">
-        <v>0.00011</v>
+        <v>0.00066</v>
       </c>
       <c r="G5">
-        <v>0.0001</v>
+        <v>0.00058</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
+        <v>0.00029</v>
+      </c>
+      <c r="D6">
+        <v>0.00028</v>
+      </c>
+      <c r="E6">
         <v>0.00054</v>
       </c>
-      <c r="D6">
-        <v>9.000000000000001E-05</v>
-      </c>
-      <c r="E6">
-        <v>0.00029</v>
-      </c>
       <c r="F6">
-        <v>0.00028</v>
+        <v>0.0008</v>
       </c>
       <c r="G6">
-        <v>0.00027</v>
+        <v>0.00077</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00036</v>
+        <v>0.00033</v>
       </c>
       <c r="D7">
-        <v>0.00043</v>
+        <v>0.00033</v>
       </c>
       <c r="E7">
-        <v>0.00025</v>
+        <v>0.00077</v>
       </c>
       <c r="F7">
-        <v>0.00021</v>
+        <v>0.00074</v>
       </c>
       <c r="G7">
-        <v>0.00031</v>
+        <v>0.00075</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.03151</v>
+        <v>0.01792</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.02135</v>
+        <v>0.01907</v>
       </c>
       <c r="D9">
-        <v>0.02171</v>
+        <v>0.01775</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01421</v>
+        <v>0.01315</v>
       </c>
       <c r="D10">
-        <v>0.01439</v>
+        <v>0.01381</v>
       </c>
       <c r="E10">
-        <v>0.0147</v>
+        <v>0.01342</v>
       </c>
       <c r="F10">
-        <v>0.01445</v>
+        <v>0.01327</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01252</v>
+        <v>0.01118</v>
       </c>
       <c r="D11">
-        <v>0.01208</v>
+        <v>0.0113</v>
       </c>
       <c r="E11">
-        <v>0.01241</v>
+        <v>0.01162</v>
       </c>
       <c r="F11">
-        <v>0.0119</v>
+        <v>0.01164</v>
       </c>
       <c r="G11">
-        <v>0.01174</v>
+        <v>0.0115</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01093</v>
+        <v>0.0098</v>
       </c>
       <c r="D12">
-        <v>0.01095</v>
+        <v>0.01035</v>
       </c>
       <c r="E12">
-        <v>0.01109</v>
+        <v>0.0103</v>
       </c>
       <c r="F12">
-        <v>0.01092</v>
+        <v>0.01054</v>
       </c>
       <c r="G12">
-        <v>0.01064</v>
+        <v>0.0104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.01011</v>
+        <v>0.009480000000000001</v>
       </c>
       <c r="D13">
-        <v>0.01501</v>
+        <v>0.00957</v>
       </c>
       <c r="E13">
-        <v>0.00993</v>
+        <v>0.009730000000000001</v>
       </c>
       <c r="F13">
-        <v>0.00983</v>
+        <v>0.009549999999999999</v>
       </c>
       <c r="G13">
-        <v>0.009950000000000001</v>
+        <v>0.009560000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.07062</v>
+        <v>0.14545</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.06422</v>
+        <v>0.30422</v>
       </c>
       <c r="D15">
-        <v>-0.08124000000000001</v>
+        <v>0.27104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.11297</v>
+        <v>0.15686</v>
       </c>
       <c r="D16">
-        <v>0.04952</v>
+        <v>0.1208</v>
       </c>
       <c r="E16">
-        <v>0.0554</v>
+        <v>0.15357</v>
       </c>
       <c r="F16">
-        <v>0.05284</v>
+        <v>0.15528</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.10058</v>
+        <v>0.10251</v>
       </c>
       <c r="D17">
-        <v>0.03226</v>
+        <v>0.083</v>
       </c>
       <c r="E17">
-        <v>0.05457</v>
+        <v>0.15796</v>
       </c>
       <c r="F17">
-        <v>0.02718</v>
+        <v>0.15669</v>
       </c>
       <c r="G17">
-        <v>0.02361</v>
+        <v>0.13889</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.1275</v>
+        <v>0.06970999999999999</v>
       </c>
       <c r="D18">
-        <v>0.02199</v>
+        <v>0.06753000000000001</v>
       </c>
       <c r="E18">
-        <v>0.06788</v>
+        <v>0.12825</v>
       </c>
       <c r="F18">
-        <v>0.06665</v>
+        <v>0.1901</v>
       </c>
       <c r="G18">
-        <v>0.06401</v>
+        <v>0.1841</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.08506</v>
+        <v>0.07940999999999999</v>
       </c>
       <c r="D19">
-        <v>0.10288</v>
+        <v>0.07947</v>
       </c>
       <c r="E19">
-        <v>0.05987</v>
+        <v>0.18235</v>
       </c>
       <c r="F19">
-        <v>0.05044</v>
+        <v>0.17682</v>
       </c>
       <c r="G19">
-        <v>0.07278999999999999</v>
+        <v>0.17769</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.14528</v>
+        <v>0.52604</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.19501</v>
+        <v>1.03422</v>
       </c>
       <c r="D21">
-        <v>-0.24257</v>
+        <v>0.98961</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.5153799999999999</v>
+        <v>0.7730399999999999</v>
       </c>
       <c r="D22">
-        <v>0.22302</v>
+        <v>0.56714</v>
       </c>
       <c r="E22">
-        <v>0.24428</v>
+        <v>0.742</v>
       </c>
       <c r="F22">
-        <v>0.23706</v>
+        <v>0.75874</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.52059</v>
+        <v>0.59433</v>
       </c>
       <c r="D23">
-        <v>0.1731</v>
+        <v>0.47615</v>
       </c>
       <c r="E23">
-        <v>0.28499</v>
+        <v>0.88088</v>
       </c>
       <c r="F23">
-        <v>0.14812</v>
+        <v>0.8728900000000001</v>
       </c>
       <c r="G23">
-        <v>0.13039</v>
+        <v>0.78254</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.75629</v>
+        <v>0.46128</v>
       </c>
       <c r="D24">
-        <v>0.13009</v>
+        <v>0.42311</v>
       </c>
       <c r="E24">
-        <v>0.39675</v>
+        <v>0.80736</v>
       </c>
       <c r="F24">
-        <v>0.39578</v>
+        <v>1.16873</v>
       </c>
       <c r="G24">
-        <v>0.3899</v>
+        <v>1.14782</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.5454599999999999</v>
+        <v>0.54313</v>
       </c>
       <c r="D25">
-        <v>0.44425</v>
+        <v>0.53806</v>
       </c>
       <c r="E25">
-        <v>0.39091</v>
+        <v>1.21448</v>
       </c>
       <c r="F25">
-        <v>0.33256</v>
+        <v>1.19959</v>
       </c>
       <c r="G25">
-        <v>0.47439</v>
+        <v>1.20509</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.805</v>
+        <v>-0.4446</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.71536</v>
+        <v>-0.36801</v>
       </c>
       <c r="D27">
-        <v>-0.6898</v>
+        <v>-0.33815</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.34425</v>
+        <v>-0.32277</v>
       </c>
       <c r="D28">
-        <v>-0.36833</v>
+        <v>-0.33395</v>
       </c>
       <c r="E28">
-        <v>-0.32092</v>
+        <v>-0.26302</v>
       </c>
       <c r="F28">
-        <v>-0.28609</v>
+        <v>-0.24434</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.22336</v>
+        <v>-0.32437</v>
       </c>
       <c r="D29">
-        <v>-0.31338</v>
+        <v>-0.27803</v>
       </c>
       <c r="E29">
-        <v>-0.30242</v>
+        <v>-0.19298</v>
       </c>
       <c r="F29">
-        <v>-0.25892</v>
+        <v>-0.20474</v>
       </c>
       <c r="G29">
-        <v>-0.2851</v>
+        <v>-0.20455</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.19108</v>
+        <v>-0.27065</v>
       </c>
       <c r="D30">
-        <v>-0.30983</v>
+        <v>-0.29984</v>
       </c>
       <c r="E30">
-        <v>-0.21196</v>
+        <v>-0.16614</v>
       </c>
       <c r="F30">
-        <v>-0.2368</v>
+        <v>-0.15213</v>
       </c>
       <c r="G30">
-        <v>-0.23626</v>
+        <v>-0.17776</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.184</v>
+        <v>-0.30084</v>
       </c>
       <c r="D31">
-        <v>-0.28263</v>
+        <v>-0.29343</v>
       </c>
       <c r="E31">
-        <v>-0.24176</v>
+        <v>-0.13976</v>
       </c>
       <c r="F31">
-        <v>-0.22288</v>
+        <v>-0.12559</v>
       </c>
       <c r="G31">
-        <v>-0.24842</v>
+        <v>-0.12936</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.0012</v>
+        <v>0.00039</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00228</v>
+        <v>0.00065</v>
       </c>
       <c r="D3">
-        <v>0.00231</v>
+        <v>0.0006400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00115</v>
+        <v>0.00053</v>
       </c>
       <c r="D4">
-        <v>0.00135</v>
+        <v>0.00141</v>
       </c>
       <c r="E4">
-        <v>0.00167</v>
+        <v>0.00173</v>
       </c>
       <c r="F4">
-        <v>0.00174</v>
+        <v>0.00186</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00079</v>
+        <v>0.00072</v>
       </c>
       <c r="D5">
-        <v>0.0009700000000000001</v>
+        <v>0.00138</v>
       </c>
       <c r="E5">
-        <v>0.00153</v>
+        <v>0.00179</v>
       </c>
       <c r="F5">
-        <v>0.00164</v>
+        <v>0.00167</v>
       </c>
       <c r="G5">
-        <v>0.0016</v>
+        <v>0.00175</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00056</v>
+        <v>0.00077</v>
       </c>
       <c r="D6">
-        <v>0.00079</v>
+        <v>0.00113</v>
       </c>
       <c r="E6">
-        <v>0.00125</v>
+        <v>0.00147</v>
       </c>
       <c r="F6">
-        <v>0.0017</v>
+        <v>0.00176</v>
       </c>
       <c r="G6">
-        <v>0.00174</v>
+        <v>0.00161</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -502,16 +502,16 @@
         <v>0.00056</v>
       </c>
       <c r="D7">
-        <v>0.00074</v>
+        <v>0.00106</v>
       </c>
       <c r="E7">
-        <v>0.00138</v>
+        <v>0.00118</v>
       </c>
       <c r="F7">
-        <v>0.00152</v>
+        <v>0.00163</v>
       </c>
       <c r="G7">
-        <v>0.00162</v>
+        <v>0.00171</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.01794</v>
+        <v>0.01853</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01906</v>
+        <v>0.01608</v>
       </c>
       <c r="D9">
-        <v>0.01775</v>
+        <v>0.01568</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01316</v>
+        <v>0.01214</v>
       </c>
       <c r="D10">
-        <v>0.01382</v>
+        <v>0.01417</v>
       </c>
       <c r="E10">
-        <v>0.01344</v>
+        <v>0.01386</v>
       </c>
       <c r="F10">
-        <v>0.01329</v>
+        <v>0.01387</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01118</v>
+        <v>0.01101</v>
       </c>
       <c r="D11">
-        <v>0.0113</v>
+        <v>0.01214</v>
       </c>
       <c r="E11">
-        <v>0.01163</v>
+        <v>0.0121</v>
       </c>
       <c r="F11">
-        <v>0.01164</v>
+        <v>0.01151</v>
       </c>
       <c r="G11">
-        <v>0.01151</v>
+        <v>0.01134</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.00979</v>
+        <v>0.01036</v>
       </c>
       <c r="D12">
-        <v>0.01035</v>
+        <v>0.01047</v>
       </c>
       <c r="E12">
-        <v>0.01029</v>
+        <v>0.01045</v>
       </c>
       <c r="F12">
-        <v>0.01054</v>
+        <v>0.01081</v>
       </c>
       <c r="G12">
-        <v>0.0104</v>
+        <v>0.01024</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009480000000000001</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="D13">
-        <v>0.00957</v>
+        <v>0.00971</v>
       </c>
       <c r="E13">
-        <v>0.009730000000000001</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="F13">
-        <v>0.009549999999999999</v>
+        <v>0.009560000000000001</v>
       </c>
       <c r="G13">
-        <v>0.009549999999999999</v>
+        <v>0.00979</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.28451</v>
+        <v>0.09372</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.54167</v>
+        <v>0.15561</v>
       </c>
       <c r="D15">
-        <v>0.5502899999999999</v>
+        <v>0.15339</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.27434</v>
+        <v>0.12655</v>
       </c>
       <c r="D16">
-        <v>0.32113</v>
+        <v>0.33523</v>
       </c>
       <c r="E16">
-        <v>0.3982</v>
+        <v>0.41123</v>
       </c>
       <c r="F16">
-        <v>0.41333</v>
+        <v>0.44253</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.18696</v>
+        <v>0.17044</v>
       </c>
       <c r="D17">
-        <v>0.23112</v>
+        <v>0.32934</v>
       </c>
       <c r="E17">
-        <v>0.36317</v>
+        <v>0.42559</v>
       </c>
       <c r="F17">
-        <v>0.39128</v>
+        <v>0.39787</v>
       </c>
       <c r="G17">
-        <v>0.38152</v>
+        <v>0.41586</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.13296</v>
+        <v>0.18272</v>
       </c>
       <c r="D18">
-        <v>0.18822</v>
+        <v>0.26863</v>
       </c>
       <c r="E18">
-        <v>0.29635</v>
+        <v>0.35086</v>
       </c>
       <c r="F18">
-        <v>0.4053</v>
+        <v>0.41962</v>
       </c>
       <c r="G18">
-        <v>0.41498</v>
+        <v>0.38204</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.13249</v>
+        <v>0.13347</v>
       </c>
       <c r="D19">
-        <v>0.17518</v>
+        <v>0.2512</v>
       </c>
       <c r="E19">
-        <v>0.32846</v>
+        <v>0.27988</v>
       </c>
       <c r="F19">
-        <v>0.36066</v>
+        <v>0.3884</v>
       </c>
       <c r="G19">
-        <v>0.38533</v>
+        <v>0.40795</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>1.02791</v>
+        <v>0.32787</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.84239</v>
+        <v>0.62739</v>
       </c>
       <c r="D21">
-        <v>2.01014</v>
+        <v>0.63408</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>1.35169</v>
+        <v>0.67559</v>
       </c>
       <c r="D22">
-        <v>1.50659</v>
+        <v>1.53384</v>
       </c>
       <c r="E22">
-        <v>1.92108</v>
+        <v>1.92278</v>
       </c>
       <c r="F22">
-        <v>2.01618</v>
+        <v>2.06874</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.08418</v>
+        <v>1.00323</v>
       </c>
       <c r="D23">
-        <v>1.32552</v>
+        <v>1.75892</v>
       </c>
       <c r="E23">
-        <v>2.0249</v>
+        <v>2.27957</v>
       </c>
       <c r="F23">
-        <v>2.17832</v>
+        <v>2.2408</v>
       </c>
       <c r="G23">
-        <v>2.14786</v>
+        <v>2.37626</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.8801099999999999</v>
+        <v>1.14339</v>
       </c>
       <c r="D24">
-        <v>1.17933</v>
+        <v>1.66383</v>
       </c>
       <c r="E24">
-        <v>1.86632</v>
+        <v>2.17549</v>
       </c>
       <c r="F24">
-        <v>2.49304</v>
+        <v>2.5171</v>
       </c>
       <c r="G24">
-        <v>2.5871</v>
+        <v>2.41753</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.90626</v>
+        <v>0.94395</v>
       </c>
       <c r="D25">
-        <v>1.186</v>
+        <v>1.67775</v>
       </c>
       <c r="E25">
-        <v>2.18774</v>
+        <v>1.94165</v>
       </c>
       <c r="F25">
-        <v>2.44809</v>
+        <v>2.63254</v>
       </c>
       <c r="G25">
-        <v>2.61492</v>
+        <v>2.70194</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.37933</v>
+        <v>-0.58069</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.27995</v>
+        <v>-0.21947</v>
       </c>
       <c r="D27">
-        <v>-0.25559</v>
+        <v>-0.21679</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.23494</v>
+        <v>-0.23651</v>
       </c>
       <c r="D28">
-        <v>-0.23298</v>
+        <v>-0.18269</v>
       </c>
       <c r="E28">
-        <v>-0.16415</v>
+        <v>-0.15781</v>
       </c>
       <c r="F28">
-        <v>-0.13614</v>
+        <v>-0.12794</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.21008</v>
+        <v>-0.16381</v>
       </c>
       <c r="D29">
-        <v>-0.17116</v>
+        <v>-0.1547</v>
       </c>
       <c r="E29">
-        <v>-0.11868</v>
+        <v>-0.1357</v>
       </c>
       <c r="F29">
-        <v>-0.11145</v>
+        <v>-0.11978</v>
       </c>
       <c r="G29">
-        <v>-0.11952</v>
+        <v>-0.11123</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.20593</v>
+        <v>-0.19511</v>
       </c>
       <c r="D30">
-        <v>-0.17864</v>
+        <v>-0.14309</v>
       </c>
       <c r="E30">
-        <v>-0.10728</v>
+        <v>-0.13477</v>
       </c>
       <c r="F30">
-        <v>-0.11495</v>
+        <v>-0.11561</v>
       </c>
       <c r="G30">
-        <v>-0.09958</v>
+        <v>-0.11883</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.24809</v>
+        <v>-0.16506</v>
       </c>
       <c r="D31">
-        <v>-0.18943</v>
+        <v>-0.12883</v>
       </c>
       <c r="E31">
-        <v>-0.10674</v>
+        <v>-0.1323</v>
       </c>
       <c r="F31">
-        <v>-0.09878000000000001</v>
+        <v>-0.09068</v>
       </c>
       <c r="G31">
-        <v>-0.10198</v>
+        <v>-0.10591</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00061</v>
+        <v>-0.00017</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00128</v>
+        <v>-0.00018</v>
       </c>
       <c r="D3">
-        <v>0.00114</v>
+        <v>-0.00044</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00066</v>
+        <v>2E-05</v>
       </c>
       <c r="D4">
-        <v>0.00051</v>
+        <v>0.00041</v>
       </c>
       <c r="E4">
-        <v>0.00065</v>
+        <v>0.00043</v>
       </c>
       <c r="F4">
-        <v>0.00065</v>
+        <v>0.00049</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00043</v>
+        <v>0.00036</v>
       </c>
       <c r="D5">
-        <v>0.00035</v>
+        <v>0.0007</v>
       </c>
       <c r="E5">
-        <v>0.00066</v>
+        <v>0.00079</v>
       </c>
       <c r="F5">
-        <v>0.00066</v>
+        <v>0.00045</v>
       </c>
       <c r="G5">
-        <v>0.00058</v>
+        <v>0.00052</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00029</v>
+        <v>0.00049</v>
       </c>
       <c r="D6">
-        <v>0.00028</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="E6">
-        <v>0.00054</v>
+        <v>0.00069</v>
       </c>
       <c r="F6">
-        <v>0.0008</v>
+        <v>0.00077</v>
       </c>
       <c r="G6">
-        <v>0.00077</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1059,16 +1059,16 @@
         <v>0.00033</v>
       </c>
       <c r="D7">
-        <v>0.00033</v>
+        <v>0.00062</v>
       </c>
       <c r="E7">
-        <v>0.00077</v>
+        <v>0.00053</v>
       </c>
       <c r="F7">
+        <v>0.00081</v>
+      </c>
+      <c r="G7">
         <v>0.00074</v>
-      </c>
-      <c r="G7">
-        <v>0.00075</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.01792</v>
+        <v>0.01857</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01907</v>
+        <v>0.01608</v>
       </c>
       <c r="D9">
-        <v>0.01775</v>
+        <v>0.01571</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01315</v>
+        <v>0.01214</v>
       </c>
       <c r="D10">
-        <v>0.01381</v>
+        <v>0.01417</v>
       </c>
       <c r="E10">
-        <v>0.01342</v>
+        <v>0.01388</v>
       </c>
       <c r="F10">
-        <v>0.01327</v>
+        <v>0.01388</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01118</v>
+        <v>0.01101</v>
       </c>
       <c r="D11">
-        <v>0.0113</v>
+        <v>0.01214</v>
       </c>
       <c r="E11">
-        <v>0.01162</v>
+        <v>0.01211</v>
       </c>
       <c r="F11">
-        <v>0.01164</v>
+        <v>0.01152</v>
       </c>
       <c r="G11">
-        <v>0.0115</v>
+        <v>0.01135</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.0098</v>
+        <v>0.01036</v>
       </c>
       <c r="D12">
-        <v>0.01035</v>
+        <v>0.01047</v>
       </c>
       <c r="E12">
-        <v>0.0103</v>
+        <v>0.01045</v>
       </c>
       <c r="F12">
-        <v>0.01054</v>
+        <v>0.01081</v>
       </c>
       <c r="G12">
-        <v>0.0104</v>
+        <v>0.01025</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009480000000000001</v>
+        <v>0.009169999999999999</v>
       </c>
       <c r="D13">
+        <v>0.00971</v>
+      </c>
+      <c r="E13">
+        <v>0.009339999999999999</v>
+      </c>
+      <c r="F13">
         <v>0.00957</v>
       </c>
-      <c r="E13">
-        <v>0.009730000000000001</v>
-      </c>
-      <c r="F13">
-        <v>0.009549999999999999</v>
-      </c>
       <c r="G13">
-        <v>0.009560000000000001</v>
+        <v>0.00979</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.14545</v>
+        <v>-0.04141</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.30422</v>
+        <v>-0.04336</v>
       </c>
       <c r="D15">
-        <v>0.27104</v>
+        <v>-0.10386</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.15686</v>
+        <v>0.00441</v>
       </c>
       <c r="D16">
-        <v>0.1208</v>
+        <v>0.09798</v>
       </c>
       <c r="E16">
-        <v>0.15357</v>
+        <v>0.10321</v>
       </c>
       <c r="F16">
-        <v>0.15528</v>
+        <v>0.1168</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.10251</v>
+        <v>0.08519</v>
       </c>
       <c r="D17">
-        <v>0.083</v>
+        <v>0.16759</v>
       </c>
       <c r="E17">
-        <v>0.15796</v>
+        <v>0.18848</v>
       </c>
       <c r="F17">
-        <v>0.15669</v>
+        <v>0.10742</v>
       </c>
       <c r="G17">
-        <v>0.13889</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.06970999999999999</v>
+        <v>0.11779</v>
       </c>
       <c r="D18">
-        <v>0.06753000000000001</v>
+        <v>0.1438</v>
       </c>
       <c r="E18">
-        <v>0.12825</v>
+        <v>0.16402</v>
       </c>
       <c r="F18">
-        <v>0.1901</v>
+        <v>0.18439</v>
       </c>
       <c r="G18">
-        <v>0.1841</v>
+        <v>0.1123</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.07940999999999999</v>
+        <v>0.07806</v>
       </c>
       <c r="D19">
-        <v>0.07947</v>
+        <v>0.1466</v>
       </c>
       <c r="E19">
-        <v>0.18235</v>
+        <v>0.12709</v>
       </c>
       <c r="F19">
-        <v>0.17682</v>
+        <v>0.19337</v>
       </c>
       <c r="G19">
-        <v>0.17769</v>
+        <v>0.17554</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.52604</v>
+        <v>-0.1446</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>1.03422</v>
+        <v>-0.17474</v>
       </c>
       <c r="D21">
-        <v>0.98961</v>
+        <v>-0.42866</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.7730399999999999</v>
+        <v>0.02355</v>
       </c>
       <c r="D22">
-        <v>0.56714</v>
+        <v>0.44829</v>
       </c>
       <c r="E22">
-        <v>0.742</v>
+        <v>0.48207</v>
       </c>
       <c r="F22">
-        <v>0.75874</v>
+        <v>0.54536</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.59433</v>
+        <v>0.50141</v>
       </c>
       <c r="D23">
-        <v>0.47615</v>
+        <v>0.89506</v>
       </c>
       <c r="E23">
-        <v>0.88088</v>
+        <v>1.00921</v>
       </c>
       <c r="F23">
-        <v>0.8728900000000001</v>
+        <v>0.60444</v>
       </c>
       <c r="G23">
-        <v>0.78254</v>
+        <v>0.70838</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.46128</v>
+        <v>0.73709</v>
       </c>
       <c r="D24">
-        <v>0.42311</v>
+        <v>0.89064</v>
       </c>
       <c r="E24">
-        <v>0.80736</v>
+        <v>1.01696</v>
       </c>
       <c r="F24">
-        <v>1.16873</v>
+        <v>1.106</v>
       </c>
       <c r="G24">
-        <v>1.14782</v>
+        <v>0.71049</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.54313</v>
+        <v>0.5521</v>
       </c>
       <c r="D25">
-        <v>0.53806</v>
+        <v>0.97902</v>
       </c>
       <c r="E25">
-        <v>1.21448</v>
+        <v>0.8815499999999999</v>
       </c>
       <c r="F25">
-        <v>1.19959</v>
+        <v>1.31037</v>
       </c>
       <c r="G25">
-        <v>1.20509</v>
+        <v>1.1622</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.4446</v>
+        <v>-0.99731</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.36801</v>
+        <v>-0.7196</v>
       </c>
       <c r="D27">
-        <v>-0.33815</v>
+        <v>-0.72595</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.32277</v>
+        <v>-0.36422</v>
       </c>
       <c r="D28">
-        <v>-0.33395</v>
+        <v>-0.27677</v>
       </c>
       <c r="E28">
-        <v>-0.26302</v>
+        <v>-0.30264</v>
       </c>
       <c r="F28">
-        <v>-0.24434</v>
+        <v>-0.30919</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.32437</v>
+        <v>-0.20745</v>
       </c>
       <c r="D29">
-        <v>-0.27803</v>
+        <v>-0.24296</v>
       </c>
       <c r="E29">
-        <v>-0.19298</v>
+        <v>-0.23402</v>
       </c>
       <c r="F29">
-        <v>-0.20474</v>
+        <v>-0.26329</v>
       </c>
       <c r="G29">
-        <v>-0.20455</v>
+        <v>-0.20113</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.27065</v>
+        <v>-0.26227</v>
       </c>
       <c r="D30">
-        <v>-0.29984</v>
+        <v>-0.24454</v>
       </c>
       <c r="E30">
-        <v>-0.16614</v>
+        <v>-0.20657</v>
       </c>
       <c r="F30">
-        <v>-0.15213</v>
+        <v>-0.20313</v>
       </c>
       <c r="G30">
-        <v>-0.17776</v>
+        <v>-0.25227</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.30084</v>
+        <v>-0.22336</v>
       </c>
       <c r="D31">
-        <v>-0.29343</v>
+        <v>-0.16519</v>
       </c>
       <c r="E31">
-        <v>-0.13976</v>
+        <v>-0.21085</v>
       </c>
       <c r="F31">
-        <v>-0.12559</v>
+        <v>-0.13605</v>
       </c>
       <c r="G31">
-        <v>-0.12936</v>
+        <v>-0.18395</v>
       </c>
     </row>
   </sheetData>

--- a/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
+++ b/data/report_df/cn_csi300_open_CSZScoreNorm_mse_IdentityReweighter.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.00039</v>
+        <v>0.00085</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -427,10 +427,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>0.00065</v>
+        <v>0.00108</v>
       </c>
       <c r="D3">
-        <v>0.0006400000000000001</v>
+        <v>0.0008</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -439,16 +439,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.00053</v>
+        <v>0.00088</v>
       </c>
       <c r="D4">
-        <v>0.00141</v>
+        <v>0.00118</v>
       </c>
       <c r="E4">
-        <v>0.00173</v>
+        <v>0.00148</v>
       </c>
       <c r="F4">
-        <v>0.00186</v>
+        <v>0.00124</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -457,19 +457,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00072</v>
+        <v>0.00079</v>
       </c>
       <c r="D5">
-        <v>0.00138</v>
+        <v>0.00115</v>
       </c>
       <c r="E5">
-        <v>0.00179</v>
+        <v>0.00169</v>
       </c>
       <c r="F5">
-        <v>0.00167</v>
+        <v>0.00159</v>
       </c>
       <c r="G5">
-        <v>0.00175</v>
+        <v>0.00156</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -478,19 +478,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00077</v>
+        <v>0.00071</v>
       </c>
       <c r="D6">
-        <v>0.00113</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="E6">
-        <v>0.00147</v>
+        <v>0.00134</v>
       </c>
       <c r="F6">
-        <v>0.00176</v>
+        <v>0.00166</v>
       </c>
       <c r="G6">
-        <v>0.00161</v>
+        <v>0.00157</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -499,19 +499,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00056</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="D7">
-        <v>0.00106</v>
+        <v>0.00101</v>
       </c>
       <c r="E7">
-        <v>0.00118</v>
+        <v>0.00128</v>
       </c>
       <c r="F7">
-        <v>0.00163</v>
+        <v>0.00147</v>
       </c>
       <c r="G7">
-        <v>0.00171</v>
+        <v>0.00165</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -522,7 +522,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.01853</v>
+        <v>0.02409</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -531,10 +531,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01608</v>
+        <v>0.01621</v>
       </c>
       <c r="D9">
-        <v>0.01568</v>
+        <v>0.01612</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -543,16 +543,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01214</v>
+        <v>0.01254</v>
       </c>
       <c r="D10">
-        <v>0.01417</v>
+        <v>0.0137</v>
       </c>
       <c r="E10">
-        <v>0.01386</v>
+        <v>0.01377</v>
       </c>
       <c r="F10">
-        <v>0.01387</v>
+        <v>0.01358</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -561,19 +561,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01101</v>
+        <v>0.01135</v>
       </c>
       <c r="D11">
-        <v>0.01214</v>
+        <v>0.01105</v>
       </c>
       <c r="E11">
-        <v>0.0121</v>
+        <v>0.01232</v>
       </c>
       <c r="F11">
-        <v>0.01151</v>
+        <v>0.01208</v>
       </c>
       <c r="G11">
-        <v>0.01134</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -582,19 +582,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01036</v>
+        <v>0.01072</v>
       </c>
       <c r="D12">
-        <v>0.01047</v>
+        <v>0.00957</v>
       </c>
       <c r="E12">
-        <v>0.01045</v>
+        <v>0.0101</v>
       </c>
       <c r="F12">
-        <v>0.01081</v>
+        <v>0.01073</v>
       </c>
       <c r="G12">
-        <v>0.01024</v>
+        <v>0.01069</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -603,19 +603,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009169999999999999</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="D13">
-        <v>0.00971</v>
+        <v>0.009129999999999999</v>
       </c>
       <c r="E13">
-        <v>0.009339999999999999</v>
+        <v>0.00915</v>
       </c>
       <c r="F13">
-        <v>0.009560000000000001</v>
+        <v>0.009310000000000001</v>
       </c>
       <c r="G13">
-        <v>0.00979</v>
+        <v>0.00975</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -626,7 +626,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>0.09372</v>
+        <v>0.20132</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>0.15561</v>
+        <v>0.25601</v>
       </c>
       <c r="D15">
-        <v>0.15339</v>
+        <v>0.19126</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -647,16 +647,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.12655</v>
+        <v>0.21042</v>
       </c>
       <c r="D16">
-        <v>0.33523</v>
+        <v>0.28196</v>
       </c>
       <c r="E16">
-        <v>0.41123</v>
+        <v>0.35166</v>
       </c>
       <c r="F16">
-        <v>0.44253</v>
+        <v>0.29525</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -665,19 +665,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.17044</v>
+        <v>0.18779</v>
       </c>
       <c r="D17">
-        <v>0.32934</v>
+        <v>0.27278</v>
       </c>
       <c r="E17">
-        <v>0.42559</v>
+        <v>0.40195</v>
       </c>
       <c r="F17">
-        <v>0.39787</v>
+        <v>0.37929</v>
       </c>
       <c r="G17">
-        <v>0.41586</v>
+        <v>0.37126</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,19 +686,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.18272</v>
+        <v>0.16884</v>
       </c>
       <c r="D18">
-        <v>0.26863</v>
+        <v>0.21243</v>
       </c>
       <c r="E18">
-        <v>0.35086</v>
+        <v>0.31836</v>
       </c>
       <c r="F18">
-        <v>0.41962</v>
+        <v>0.39596</v>
       </c>
       <c r="G18">
-        <v>0.38204</v>
+        <v>0.37426</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -707,19 +707,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.13347</v>
+        <v>0.14258</v>
       </c>
       <c r="D19">
-        <v>0.2512</v>
+        <v>0.24087</v>
       </c>
       <c r="E19">
-        <v>0.27988</v>
+        <v>0.30442</v>
       </c>
       <c r="F19">
-        <v>0.3884</v>
+        <v>0.35011</v>
       </c>
       <c r="G19">
-        <v>0.40795</v>
+        <v>0.39189</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>0.32787</v>
+        <v>0.5417</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -739,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>0.62739</v>
+        <v>1.02345</v>
       </c>
       <c r="D21">
-        <v>0.63408</v>
+        <v>0.76905</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -751,16 +751,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.67559</v>
+        <v>1.08765</v>
       </c>
       <c r="D22">
-        <v>1.53384</v>
+        <v>1.33404</v>
       </c>
       <c r="E22">
-        <v>1.92278</v>
+        <v>1.65506</v>
       </c>
       <c r="F22">
-        <v>2.06874</v>
+        <v>1.40936</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -769,19 +769,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>1.00323</v>
+        <v>1.07222</v>
       </c>
       <c r="D23">
-        <v>1.75892</v>
+        <v>1.60011</v>
       </c>
       <c r="E23">
-        <v>2.27957</v>
+        <v>2.11453</v>
       </c>
       <c r="F23">
-        <v>2.2408</v>
+        <v>2.03514</v>
       </c>
       <c r="G23">
-        <v>2.37626</v>
+        <v>2.0227</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -790,19 +790,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>1.14339</v>
+        <v>1.02064</v>
       </c>
       <c r="D24">
-        <v>1.66383</v>
+        <v>1.43865</v>
       </c>
       <c r="E24">
-        <v>2.17549</v>
+        <v>2.04235</v>
       </c>
       <c r="F24">
-        <v>2.5171</v>
+        <v>2.39207</v>
       </c>
       <c r="G24">
-        <v>2.41753</v>
+        <v>2.2703</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -811,19 +811,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.94395</v>
+        <v>0.98543</v>
       </c>
       <c r="D25">
-        <v>1.67775</v>
+        <v>1.70946</v>
       </c>
       <c r="E25">
-        <v>1.94165</v>
+        <v>2.15602</v>
       </c>
       <c r="F25">
-        <v>2.63254</v>
+        <v>2.43853</v>
       </c>
       <c r="G25">
-        <v>2.70194</v>
+        <v>2.6043</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.58069</v>
+        <v>-0.5767600000000001</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -843,10 +843,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.21947</v>
+        <v>-0.25888</v>
       </c>
       <c r="D27">
-        <v>-0.21679</v>
+        <v>-0.24762</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -855,16 +855,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.23651</v>
+        <v>-0.1668</v>
       </c>
       <c r="D28">
-        <v>-0.18269</v>
+        <v>-0.18822</v>
       </c>
       <c r="E28">
-        <v>-0.15781</v>
+        <v>-0.17232</v>
       </c>
       <c r="F28">
-        <v>-0.12794</v>
+        <v>-0.18693</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -873,19 +873,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.16381</v>
+        <v>-0.2117</v>
       </c>
       <c r="D29">
-        <v>-0.1547</v>
+        <v>-0.12984</v>
       </c>
       <c r="E29">
-        <v>-0.1357</v>
+        <v>-0.1484</v>
       </c>
       <c r="F29">
-        <v>-0.11978</v>
+        <v>-0.1379</v>
       </c>
       <c r="G29">
-        <v>-0.11123</v>
+        <v>-0.1369</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -894,19 +894,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.19511</v>
+        <v>-0.22198</v>
       </c>
       <c r="D30">
-        <v>-0.14309</v>
+        <v>-0.21536</v>
       </c>
       <c r="E30">
-        <v>-0.13477</v>
+        <v>-0.15245</v>
       </c>
       <c r="F30">
-        <v>-0.11561</v>
+        <v>-0.12272</v>
       </c>
       <c r="G30">
-        <v>-0.11883</v>
+        <v>-0.1197</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -915,19 +915,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.16506</v>
+        <v>-0.17734</v>
       </c>
       <c r="D31">
-        <v>-0.12883</v>
+        <v>-0.14452</v>
       </c>
       <c r="E31">
-        <v>-0.1323</v>
+        <v>-0.12984</v>
       </c>
       <c r="F31">
-        <v>-0.09068</v>
+        <v>-0.11178</v>
       </c>
       <c r="G31">
-        <v>-0.10591</v>
+        <v>-0.11123</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>-0.00017</v>
+        <v>-6E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -984,10 +984,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>-0.00018</v>
+        <v>0.00049</v>
       </c>
       <c r="D3">
-        <v>-0.00044</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -996,16 +996,16 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>2E-05</v>
+        <v>0.00047</v>
       </c>
       <c r="D4">
-        <v>0.00041</v>
+        <v>0.00052</v>
       </c>
       <c r="E4">
-        <v>0.00043</v>
+        <v>0.00071</v>
       </c>
       <c r="F4">
-        <v>0.00049</v>
+        <v>0.00046</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1014,19 +1014,19 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>0.00036</v>
+        <v>0.00047</v>
       </c>
       <c r="D5">
-        <v>0.0007</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="E5">
-        <v>0.00079</v>
+        <v>0.001</v>
       </c>
       <c r="F5">
-        <v>0.00045</v>
+        <v>0.00082</v>
       </c>
       <c r="G5">
-        <v>0.00052</v>
+        <v>0.00076</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1035,19 +1035,19 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.00049</v>
+        <v>0.00045</v>
       </c>
       <c r="D6">
-        <v>0.0005999999999999999</v>
+        <v>0.00048</v>
       </c>
       <c r="E6">
-        <v>0.00069</v>
+        <v>0.00078</v>
       </c>
       <c r="F6">
-        <v>0.00077</v>
+        <v>0.00098</v>
       </c>
       <c r="G6">
-        <v>0.00047</v>
+        <v>0.00084</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1056,19 +1056,19 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.00033</v>
+        <v>0.00039</v>
       </c>
       <c r="D7">
-        <v>0.00062</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="E7">
-        <v>0.00053</v>
+        <v>0.00079</v>
       </c>
       <c r="F7">
-        <v>0.00081</v>
+        <v>0.00088</v>
       </c>
       <c r="G7">
-        <v>0.00074</v>
+        <v>0.0009700000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>0.01857</v>
+        <v>0.02415</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1088,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.01608</v>
+        <v>0.01624</v>
       </c>
       <c r="D9">
-        <v>0.01571</v>
+        <v>0.01615</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1100,16 +1100,16 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>0.01214</v>
+        <v>0.01255</v>
       </c>
       <c r="D10">
-        <v>0.01417</v>
+        <v>0.01371</v>
       </c>
       <c r="E10">
-        <v>0.01388</v>
+        <v>0.0138</v>
       </c>
       <c r="F10">
-        <v>0.01388</v>
+        <v>0.01361</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1118,19 +1118,19 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>0.01101</v>
+        <v>0.01135</v>
       </c>
       <c r="D11">
-        <v>0.01214</v>
+        <v>0.01105</v>
       </c>
       <c r="E11">
-        <v>0.01211</v>
+        <v>0.01233</v>
       </c>
       <c r="F11">
-        <v>0.01152</v>
+        <v>0.01209</v>
       </c>
       <c r="G11">
-        <v>0.01135</v>
+        <v>0.01191</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1139,19 +1139,19 @@
         <v>8</v>
       </c>
       <c r="C12">
-        <v>0.01036</v>
+        <v>0.01072</v>
       </c>
       <c r="D12">
-        <v>0.01047</v>
+        <v>0.00957</v>
       </c>
       <c r="E12">
-        <v>0.01045</v>
+        <v>0.01011</v>
       </c>
       <c r="F12">
-        <v>0.01081</v>
+        <v>0.01073</v>
       </c>
       <c r="G12">
-        <v>0.01025</v>
+        <v>0.0107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1160,19 +1160,19 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.009169999999999999</v>
+        <v>0.009379999999999999</v>
       </c>
       <c r="D13">
-        <v>0.00971</v>
+        <v>0.009129999999999999</v>
       </c>
       <c r="E13">
-        <v>0.009339999999999999</v>
+        <v>0.00916</v>
       </c>
       <c r="F13">
-        <v>0.00957</v>
+        <v>0.009310000000000001</v>
       </c>
       <c r="G13">
-        <v>0.00979</v>
+        <v>0.00976</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>-0.04141</v>
+        <v>-0.0144</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1192,10 +1192,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>-0.04336</v>
+        <v>0.1163</v>
       </c>
       <c r="D15">
-        <v>-0.10386</v>
+        <v>0.03794</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1204,16 +1204,16 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>0.00441</v>
+        <v>0.1122</v>
       </c>
       <c r="D16">
-        <v>0.09798</v>
+        <v>0.12376</v>
       </c>
       <c r="E16">
-        <v>0.10321</v>
+        <v>0.16864</v>
       </c>
       <c r="F16">
-        <v>0.1168</v>
+        <v>0.10882</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1222,19 +1222,19 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0.08519</v>
+        <v>0.11123</v>
       </c>
       <c r="D17">
-        <v>0.16759</v>
+        <v>0.15201</v>
       </c>
       <c r="E17">
-        <v>0.18848</v>
+        <v>0.23851</v>
       </c>
       <c r="F17">
-        <v>0.10742</v>
+        <v>0.19634</v>
       </c>
       <c r="G17">
-        <v>0.124</v>
+        <v>0.18077</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1243,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>0.11779</v>
+        <v>0.10664</v>
       </c>
       <c r="D18">
-        <v>0.1438</v>
+        <v>0.11314</v>
       </c>
       <c r="E18">
-        <v>0.16402</v>
+        <v>0.18616</v>
       </c>
       <c r="F18">
-        <v>0.18439</v>
+        <v>0.23419</v>
       </c>
       <c r="G18">
-        <v>0.1123</v>
+        <v>0.19918</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1264,19 +1264,19 @@
         <v>10</v>
       </c>
       <c r="C19">
-        <v>0.07806</v>
+        <v>0.09234000000000001</v>
       </c>
       <c r="D19">
-        <v>0.1466</v>
+        <v>0.15234</v>
       </c>
       <c r="E19">
-        <v>0.12709</v>
+        <v>0.18782</v>
       </c>
       <c r="F19">
-        <v>0.19337</v>
+        <v>0.21056</v>
       </c>
       <c r="G19">
-        <v>0.17554</v>
+        <v>0.23155</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1287,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>-0.1446</v>
+        <v>-0.03866</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1296,10 +1296,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>-0.17474</v>
+        <v>0.46427</v>
       </c>
       <c r="D21">
-        <v>-0.42866</v>
+        <v>0.15228</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1308,16 +1308,16 @@
         <v>4</v>
       </c>
       <c r="C22">
-        <v>0.02355</v>
+        <v>0.57961</v>
       </c>
       <c r="D22">
-        <v>0.44829</v>
+        <v>0.58504</v>
       </c>
       <c r="E22">
-        <v>0.48207</v>
+        <v>0.79236</v>
       </c>
       <c r="F22">
-        <v>0.54536</v>
+        <v>0.5182</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1326,19 +1326,19 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0.50141</v>
+        <v>0.63526</v>
       </c>
       <c r="D23">
-        <v>0.89506</v>
+        <v>0.89135</v>
       </c>
       <c r="E23">
-        <v>1.00921</v>
+        <v>1.2541</v>
       </c>
       <c r="F23">
-        <v>0.60444</v>
+        <v>1.05229</v>
       </c>
       <c r="G23">
-        <v>0.70838</v>
+        <v>0.98409</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1347,19 +1347,19 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.73709</v>
+        <v>0.64454</v>
       </c>
       <c r="D24">
-        <v>0.89064</v>
+        <v>0.76596</v>
       </c>
       <c r="E24">
-        <v>1.01696</v>
+        <v>1.19377</v>
       </c>
       <c r="F24">
-        <v>1.106</v>
+        <v>1.41439</v>
       </c>
       <c r="G24">
-        <v>0.71049</v>
+        <v>1.20694</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1368,19 +1368,19 @@
         <v>10</v>
       </c>
       <c r="C25">
-        <v>0.5521</v>
+        <v>0.63814</v>
       </c>
       <c r="D25">
-        <v>0.97902</v>
+        <v>1.08131</v>
       </c>
       <c r="E25">
-        <v>0.8815499999999999</v>
+        <v>1.32972</v>
       </c>
       <c r="F25">
-        <v>1.31037</v>
+        <v>1.46652</v>
       </c>
       <c r="G25">
-        <v>1.1622</v>
+        <v>1.53858</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1391,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>-0.99731</v>
+        <v>-0.7156</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1400,10 +1400,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>-0.7196</v>
+        <v>-0.3298</v>
       </c>
       <c r="D27">
-        <v>-0.72595</v>
+        <v>-0.31648</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1412,16 +1412,16 @@
         <v>4</v>
       </c>
       <c r="C28">
-        <v>-0.36422</v>
+        <v>-0.20435</v>
       </c>
       <c r="D28">
-        <v>-0.27677</v>
+        <v>-0.31349</v>
       </c>
       <c r="E28">
-        <v>-0.30264</v>
+        <v>-0.24736</v>
       </c>
       <c r="F28">
-        <v>-0.30919</v>
+        <v>-0.26109</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1430,19 +1430,19 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>-0.20745</v>
+        <v>-0.24933</v>
       </c>
       <c r="D29">
-        <v>-0.24296</v>
+        <v>-0.17177</v>
       </c>
       <c r="E29">
-        <v>-0.23402</v>
+        <v>-0.1786</v>
       </c>
       <c r="F29">
-        <v>-0.26329</v>
+        <v>-0.16301</v>
       </c>
       <c r="G29">
-        <v>-0.20113</v>
+        <v>-0.17949</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1451,19 +1451,19 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>-0.26227</v>
+        <v>-0.24125</v>
       </c>
       <c r="D30">
-        <v>-0.24454</v>
+        <v>-0.30196</v>
       </c>
       <c r="E30">
-        <v>-0.20657</v>
+        <v>-0.18618</v>
       </c>
       <c r="F30">
-        <v>-0.20313</v>
+        <v>-0.14091</v>
       </c>
       <c r="G30">
-        <v>-0.25227</v>
+        <v>-0.16483</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1472,19 +1472,19 @@
         <v>10</v>
       </c>
       <c r="C31">
-        <v>-0.22336</v>
+        <v>-0.20139</v>
       </c>
       <c r="D31">
-        <v>-0.16519</v>
+        <v>-0.19049</v>
       </c>
       <c r="E31">
-        <v>-0.21085</v>
+        <v>-0.16691</v>
       </c>
       <c r="F31">
-        <v>-0.13605</v>
+        <v>-0.13894</v>
       </c>
       <c r="G31">
-        <v>-0.18395</v>
+        <v>-0.14468</v>
       </c>
     </row>
   </sheetData>
